--- a/fitting methods/individual_best_fits.xlsx
+++ b/fitting methods/individual_best_fits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charmibhatt/Desktop/Local_GitHub/edibles/edibles/utils/simulations/Charmi/fitting methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AF374A-CBC0-8543-A284-30204C9FBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47CDB3-2E95-C34B-94F5-AE030B3BDF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="16260" xr2:uid="{C3D318D6-94D0-5843-A375-B655912A467E}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,132 +561,132 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>185418</v>
+        <v>23180</v>
       </c>
       <c r="B2" s="1">
         <v>1.27</v>
       </c>
       <c r="C2" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="D2" s="2">
-        <v>2.6788285964879002E-3</v>
+        <v>2.2569567876705001E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>77.061992951583804</v>
+        <v>99.999999774103003</v>
       </c>
       <c r="F2" s="2">
-        <v>-7.8490267008595599E-2</v>
+        <v>-3.5278235452891597E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.29803675142309799</v>
+        <v>-0.419715259740569</v>
       </c>
       <c r="H2" s="2">
-        <v>0.209745094878592</v>
+        <v>0.22470710708345201</v>
       </c>
       <c r="I2" s="2">
-        <v>7.4136293824761598E-2</v>
+        <v>4.1387792579569999E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>0.71695164642849796</v>
+        <v>4.6848835110828304</v>
       </c>
       <c r="K2" s="2">
-        <v>4.2173626260499801E-2</v>
+        <v>0.275581383004872</v>
       </c>
       <c r="L2" s="2">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="M2" s="2">
-        <v>1.483857881853E-4</v>
+        <v>4.382856843112E-4</v>
       </c>
       <c r="N2" s="2">
-        <v>7.15173243245256</v>
+        <v>50.518716051385702</v>
       </c>
       <c r="O2" s="2">
-        <v>5.2809678195322E-3</v>
+        <v>1.33392039457146E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>1.30186809170076E-2</v>
+        <v>0.11271029873464899</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.2755497284114996E-3</v>
+        <v>3.70534712240813E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>4.9924206941105997E-3</v>
+        <v>1.3528589212884599E-2</v>
       </c>
       <c r="S2" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="T2" s="2">
-        <v>32.700000000000003</v>
+        <v>92.5</v>
       </c>
       <c r="U2" s="2">
-        <v>-0.4</v>
+        <v>-0.23</v>
       </c>
       <c r="V2" s="2">
-        <v>-0.9</v>
+        <v>-0.23</v>
       </c>
       <c r="W2" s="2">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="X2" s="2">
-        <v>3.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>23180</v>
+        <v>24398</v>
       </c>
       <c r="B3" s="1">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="C3" s="1">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="2">
-        <v>2.2569567876705001E-3</v>
+        <v>2.9813941869487998E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>99.999999774103003</v>
+        <v>72.250904085579904</v>
       </c>
       <c r="F3" s="2">
-        <v>-3.5278235452891597E-2</v>
+        <v>-5.0153717101126503E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.419715259740569</v>
+        <v>-0.28431060093233801</v>
       </c>
       <c r="H3" s="2">
-        <v>0.22470710708345201</v>
+        <v>0.182611128161106</v>
       </c>
       <c r="I3" s="2">
-        <v>4.1387792579569999E-3</v>
+        <v>-3.8878189499891698E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>4.6848835110828304</v>
+        <v>6.9323094409452102</v>
       </c>
       <c r="K3" s="2">
-        <v>0.275581383004872</v>
+        <v>0.36485839162869499</v>
       </c>
       <c r="L3" s="2">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="M3" s="2">
-        <v>4.382856843112E-4</v>
+        <v>2.8063614314170001E-4</v>
       </c>
       <c r="N3" s="2">
-        <v>50.518716051385702</v>
+        <v>9.1190297379415099</v>
       </c>
       <c r="O3" s="2">
-        <v>1.33392039457146E-2</v>
+        <v>1.2829030387928301E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>0.11271029873464899</v>
+        <v>2.31551276237742E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.70534712240813E-2</v>
+        <v>1.3813503094968401E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>1.3528589212884599E-2</v>
+        <v>8.9324131311313004E-3</v>
       </c>
       <c r="S3" s="2">
         <v>7.4999999999999997E-3</v>
@@ -709,150 +709,150 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>185859</v>
+        <v>144470</v>
       </c>
       <c r="B4" s="1">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="C4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.7200767727515E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>81.433692006854599</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-2.3431405945698199E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.36362363969042799</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.20618372401294599</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-3.6945599431053598E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.8991554396967203</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.41574502314193201</v>
+      </c>
+      <c r="L4" s="2">
+        <v>88</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.1892612157379999E-4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15.3237575295312</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.27675938164712E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.01832287695929E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.3232832408822599E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.04514359018424E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="W4" s="2">
         <v>0.05</v>
       </c>
-      <c r="D4" s="2">
-        <v>5.3146360520150001E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39.489064829633897</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.17560581345739301</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-0.24485163171715699</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.196896417486808</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.45299444530062E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.9387067573038799</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.16326148651688199</v>
-      </c>
-      <c r="L4" s="2">
-        <v>185</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3.3745798479079001E-3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>24.9425552431948</v>
-      </c>
-      <c r="O4" s="2">
-        <v>9.5452961243009504E-2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1.6378827473830099E-2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1.0058537329867201E-2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1.04207485797523E-2</v>
-      </c>
-      <c r="S4" s="2">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="T4" s="2">
-        <v>92.5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-0.23</v>
-      </c>
-      <c r="V4" s="2">
-        <v>-0.23</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.23</v>
-      </c>
       <c r="X4" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>203532</v>
+        <v>147165</v>
       </c>
       <c r="B5" s="1">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="C5" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="2">
-        <v>2.5792448204531998E-3</v>
+        <v>4.2675400003663998E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>80.119791914606793</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-8.7111936666065801E-2</v>
+        <v>54.5027465665016</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-2.9144020530225102E-11</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.33100269070750099</v>
+        <v>-0.58560832849217204</v>
       </c>
       <c r="H5" s="2">
-        <v>0.19354006024269799</v>
+        <v>0.28712269130644802</v>
       </c>
       <c r="I5" s="2">
-        <v>8.0485095880279106E-2</v>
+        <v>-0.118946092843169</v>
       </c>
       <c r="J5" s="2">
-        <v>3.02561578929165</v>
+        <v>73.155850191804902</v>
       </c>
       <c r="K5" s="2">
-        <v>0.17797739937009699</v>
+        <v>3.3252659178093098</v>
       </c>
       <c r="L5" s="2">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="M5" s="2">
-        <v>2.068354500168E-4</v>
+        <v>3.77318480751326E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>11.3081695266659</v>
+        <v>465.25882825898799</v>
       </c>
       <c r="O5" s="2">
-        <v>9.5610234821822005E-3</v>
+        <v>8.3278525710139301E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>2.6399478896506401E-2</v>
+        <v>0.377022218872821</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.35743363683597E-2</v>
+        <v>6.5325375933466795E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>9.4029609885853994E-3</v>
+        <v>8.4937748124001095E-2</v>
       </c>
       <c r="S5" s="2">
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T5" s="2">
-        <v>92.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.23</v>
+        <v>-0.9</v>
       </c>
       <c r="W5" s="2">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="X5" s="2">
-        <v>0.02</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -931,132 +931,132 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>170740</v>
+        <v>149757</v>
       </c>
       <c r="B7" s="1">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="C7" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="2">
-        <v>2.5930818321527002E-3</v>
+        <v>3.53044958407E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>83.345615976807906</v>
+        <v>53.541689057577898</v>
       </c>
       <c r="F7" s="2">
-        <v>-7.8316937323382907E-2</v>
+        <v>-0.107583542957293</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.31444127066586802</v>
+        <v>-0.45035284567380501</v>
       </c>
       <c r="H7" s="2">
-        <v>0.195181853774683</v>
+        <v>0.20399895007544799</v>
       </c>
       <c r="I7" s="2">
-        <v>1.7777408191108599E-2</v>
+        <v>-2.5474021145927801E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>2.98995180766333</v>
+        <v>14.7721968764252</v>
       </c>
       <c r="K7" s="2">
-        <v>0.166108433759074</v>
+        <v>0.82067760424584502</v>
       </c>
       <c r="L7" s="2">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="M7" s="2">
-        <v>1.880142444715E-4</v>
+        <v>7.6243461639763999E-3</v>
       </c>
       <c r="N7" s="2">
-        <v>11.434967252590701</v>
+        <v>113.893395275004</v>
       </c>
       <c r="O7" s="2">
-        <v>8.8415758728295994E-3</v>
+        <v>0.23244313255711299</v>
       </c>
       <c r="P7" s="2">
-        <v>2.4290864162916301E-2</v>
+        <v>5.8295825214700003E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.38947627288094E-2</v>
+        <v>1.6746938578473002E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>8.6722355463597998E-3</v>
+        <v>2.0654419126408499E-2</v>
       </c>
       <c r="S7" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="T7" s="2">
-        <v>32.700000000000003</v>
+        <v>92.5</v>
       </c>
       <c r="U7" s="2">
-        <v>-0.4</v>
+        <v>-0.23</v>
       </c>
       <c r="V7" s="2">
-        <v>-0.9</v>
+        <v>-0.23</v>
       </c>
       <c r="W7" s="2">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="X7" s="2">
-        <v>3.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>24398</v>
+        <v>166937</v>
       </c>
       <c r="B8" s="1">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="C8" s="1">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>2.9813941869487998E-3</v>
+        <v>2.0775622892916798E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>72.250904085579904</v>
+        <v>180.46201117126901</v>
       </c>
       <c r="F8" s="2">
-        <v>-5.0153717101126503E-2</v>
+        <v>-7.5954586381093106E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.28431060093233801</v>
+        <v>-0.45715912506407202</v>
       </c>
       <c r="H8" s="2">
-        <v>0.182611128161106</v>
+        <v>0.233037411928643</v>
       </c>
       <c r="I8" s="2">
-        <v>-3.8878189499891698E-2</v>
+        <v>8.0825753709893505E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>6.9323094409452102</v>
+        <v>1.2475542885404001</v>
       </c>
       <c r="K8" s="2">
-        <v>0.36485839162869499</v>
+        <v>4.7982857251553802E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="M8" s="2">
-        <v>2.8063614314170001E-4</v>
+        <v>1.70779828786468E-4</v>
       </c>
       <c r="N8" s="2">
-        <v>9.1190297379415099</v>
+        <v>95.794074117784405</v>
       </c>
       <c r="O8" s="2">
-        <v>1.2829030387928301E-2</v>
+        <v>1.14420959097652E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>2.31551276237742E-2</v>
+        <v>5.9854541730077301E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.3813503094968401E-2</v>
+        <v>1.6819058042133499E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>8.9324131311313004E-3</v>
+        <v>1.4171126404711999E-2</v>
       </c>
       <c r="S8" s="2">
         <v>7.4999999999999997E-3</v>
@@ -1079,76 +1079,76 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>149757</v>
+        <v>170740</v>
       </c>
       <c r="B9" s="1">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="C9" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D9" s="2">
-        <v>3.53044958407E-3</v>
+        <v>2.5930818321527002E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>53.541689057577898</v>
+        <v>83.345615976807906</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.107583542957293</v>
+        <v>-7.8316937323382907E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.45035284567380501</v>
+        <v>-0.31444127066586802</v>
       </c>
       <c r="H9" s="2">
-        <v>0.20399895007544799</v>
+        <v>0.195181853774683</v>
       </c>
       <c r="I9" s="2">
-        <v>-2.5474021145927801E-2</v>
+        <v>1.7777408191108599E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>14.7721968764252</v>
+        <v>2.98995180766333</v>
       </c>
       <c r="K9" s="2">
-        <v>0.82067760424584502</v>
+        <v>0.166108433759074</v>
       </c>
       <c r="L9" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M9" s="2">
-        <v>7.6243461639763999E-3</v>
+        <v>1.880142444715E-4</v>
       </c>
       <c r="N9" s="2">
-        <v>113.893395275004</v>
+        <v>11.434967252590701</v>
       </c>
       <c r="O9" s="2">
-        <v>0.23244313255711299</v>
+        <v>8.8415758728295994E-3</v>
       </c>
       <c r="P9" s="2">
-        <v>5.8295825214700003E-2</v>
+        <v>2.4290864162916301E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.6746938578473002E-2</v>
+        <v>1.38947627288094E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.0654419126408499E-2</v>
+        <v>8.6722355463597998E-3</v>
       </c>
       <c r="S9" s="2">
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T9" s="2">
-        <v>92.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U9" s="2">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="V9" s="2">
-        <v>-0.23</v>
+        <v>-0.9</v>
       </c>
       <c r="W9" s="2">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="X9" s="2">
-        <v>0.02</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1227,58 +1227,58 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>147165</v>
+        <v>185418</v>
       </c>
       <c r="B11" s="1">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="C11" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D11" s="2">
-        <v>4.2675400003663998E-3</v>
+        <v>2.6788285964879002E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>54.5027465665016</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-2.9144020530225102E-11</v>
+        <v>77.061992951583804</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-7.8490267008595599E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.58560832849217204</v>
+        <v>-0.29803675142309799</v>
       </c>
       <c r="H11" s="2">
-        <v>0.28712269130644802</v>
+        <v>0.209745094878592</v>
       </c>
       <c r="I11" s="2">
-        <v>-0.118946092843169</v>
+        <v>7.4136293824761598E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>73.155850191804902</v>
+        <v>0.71695164642849796</v>
       </c>
       <c r="K11" s="2">
-        <v>3.3252659178093098</v>
+        <v>4.2173626260499801E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>469</v>
+        <v>157</v>
       </c>
       <c r="M11" s="2">
-        <v>3.77318480751326E-2</v>
+        <v>1.483857881853E-4</v>
       </c>
       <c r="N11" s="2">
-        <v>465.25882825898799</v>
+        <v>7.15173243245256</v>
       </c>
       <c r="O11" s="2">
-        <v>8.3278525710139301E-2</v>
+        <v>5.2809678195322E-3</v>
       </c>
       <c r="P11" s="2">
-        <v>0.377022218872821</v>
+        <v>1.30186809170076E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>6.5325375933466795E-2</v>
+        <v>8.2755497284114996E-3</v>
       </c>
       <c r="R11" s="2">
-        <v>8.4937748124001095E-2</v>
+        <v>4.9924206941105997E-3</v>
       </c>
       <c r="S11" s="2">
         <v>5.0000000000000001E-3</v>
@@ -1301,132 +1301,132 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>144470</v>
+        <v>185859</v>
       </c>
       <c r="B12" s="1">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="C12" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="2">
-        <v>2.7200767727515E-3</v>
+        <v>5.3146360520150001E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>81.433692006854599</v>
+        <v>39.489064829633897</v>
       </c>
       <c r="F12" s="2">
-        <v>-2.3431405945698199E-2</v>
+        <v>-0.17560581345739301</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.36362363969042799</v>
+        <v>-0.24485163171715699</v>
       </c>
       <c r="H12" s="2">
-        <v>0.20618372401294599</v>
+        <v>0.196896417486808</v>
       </c>
       <c r="I12" s="2">
-        <v>-3.6945599431053598E-2</v>
+        <v>2.45299444530062E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>7.8991554396967203</v>
+        <v>2.9387067573038799</v>
       </c>
       <c r="K12" s="2">
-        <v>0.41574502314193201</v>
+        <v>0.16326148651688199</v>
       </c>
       <c r="L12" s="2">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="M12" s="2">
-        <v>3.1892612157379999E-4</v>
+        <v>3.3745798479079001E-3</v>
       </c>
       <c r="N12" s="2">
-        <v>15.3237575295312</v>
+        <v>24.9425552431948</v>
       </c>
       <c r="O12" s="2">
-        <v>1.27675938164712E-2</v>
+        <v>9.5452961243009504E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>5.01832287695929E-2</v>
+        <v>1.6378827473830099E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.3232832408822599E-2</v>
+        <v>1.0058537329867201E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>1.04514359018424E-2</v>
+        <v>1.04207485797523E-2</v>
       </c>
       <c r="S12" s="2">
-        <v>0.01</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="T12" s="2">
-        <v>2.7</v>
+        <v>92.5</v>
       </c>
       <c r="U12" s="2">
-        <v>-0.1</v>
+        <v>-0.23</v>
       </c>
       <c r="V12" s="2">
-        <v>-0.1</v>
+        <v>-0.23</v>
       </c>
       <c r="W12" s="2">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>166937</v>
+        <v>203532</v>
       </c>
       <c r="B13" s="1">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="C13" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>2.0775622892916798E-3</v>
+        <v>2.5792448204531998E-3</v>
       </c>
       <c r="E13" s="2">
-        <v>180.46201117126901</v>
+        <v>80.119791914606793</v>
       </c>
       <c r="F13" s="2">
-        <v>-7.5954586381093106E-2</v>
+        <v>-8.7111936666065801E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.45715912506407202</v>
+        <v>-0.33100269070750099</v>
       </c>
       <c r="H13" s="2">
-        <v>0.233037411928643</v>
+        <v>0.19354006024269799</v>
       </c>
       <c r="I13" s="2">
-        <v>8.0825753709893505E-2</v>
+        <v>8.0485095880279106E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>1.2475542885404001</v>
+        <v>3.02561578929165</v>
       </c>
       <c r="K13" s="2">
-        <v>4.7982857251553802E-2</v>
+        <v>0.17797739937009699</v>
       </c>
       <c r="L13" s="2">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="M13" s="2">
-        <v>1.70779828786468E-4</v>
+        <v>2.068354500168E-4</v>
       </c>
       <c r="N13" s="2">
-        <v>95.794074117784405</v>
+        <v>11.3081695266659</v>
       </c>
       <c r="O13" s="2">
-        <v>1.14420959097652E-2</v>
+        <v>9.5610234821822005E-3</v>
       </c>
       <c r="P13" s="2">
-        <v>5.9854541730077301E-2</v>
+        <v>2.6399478896506401E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.6819058042133499E-2</v>
+        <v>1.35743363683597E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>1.4171126404711999E-2</v>
+        <v>9.4029609885853994E-3</v>
       </c>
       <c r="S13" s="2">
         <v>7.4999999999999997E-3</v>
@@ -1448,8 +1448,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
